--- a/Final results.xlsx
+++ b/Final results.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>GRU</t>
   </si>
@@ -55,15 +56,94 @@
   <si>
     <t>DMN</t>
   </si>
+  <si>
+    <t>Task 1</t>
+  </si>
+  <si>
+    <t>Task 2</t>
+  </si>
+  <si>
+    <t>Task 3</t>
+  </si>
+  <si>
+    <t>Task 4</t>
+  </si>
+  <si>
+    <t>Task 5</t>
+  </si>
+  <si>
+    <t>Task 6</t>
+  </si>
+  <si>
+    <t>Task 7</t>
+  </si>
+  <si>
+    <t>Task 8</t>
+  </si>
+  <si>
+    <t>Task 9</t>
+  </si>
+  <si>
+    <t>Task 10</t>
+  </si>
+  <si>
+    <t>Task 11</t>
+  </si>
+  <si>
+    <t>Task 12</t>
+  </si>
+  <si>
+    <t>Task 13</t>
+  </si>
+  <si>
+    <t>Task 14</t>
+  </si>
+  <si>
+    <t>Task 15</t>
+  </si>
+  <si>
+    <t>Task 16</t>
+  </si>
+  <si>
+    <t>Task 17</t>
+  </si>
+  <si>
+    <t>Task 18</t>
+  </si>
+  <si>
+    <t>Task 19</t>
+  </si>
+  <si>
+    <t>Task 20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,13 +166,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1887,11 +1976,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="576498096"/>
-        <c:axId val="576160560"/>
+        <c:axId val="1636129376"/>
+        <c:axId val="1636140496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="576498096"/>
+        <c:axId val="1636129376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1990,7 +2079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576160560"/>
+        <c:crossAx val="1636140496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1998,7 +2087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="576160560"/>
+        <c:axId val="1636140496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2115,7 +2204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576498096"/>
+        <c:crossAx val="1636129376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3133,8 +3222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3812,4 +3901,701 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="9" width="6.83203125" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.755</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.84599999785400004</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.52699999958300003</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.94500000178800003</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.52800000011899995</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.42500000298000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.42499999850999998</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.30099999979100001</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.341000001878</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.36700000092399998</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.225000000373</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.32099999934399998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.215000000596</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.42099999934400001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.21600000076</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.18200000114699999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.22600000016399999</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.218000000715</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.74300000071500005</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.78199999928499997</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.73600001037100005</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.77499999403999997</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.75999999642399996</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.31200000047699999</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.75300000309899995</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.91899999082100003</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.98700000643700003</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.55099999755600004</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.986000004411</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.67500000297999996</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.78899998664899995</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.87100000083399998</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.84599999189399999</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.54900000095400003</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.75999999940399998</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.47100000381500001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.76400000155000003</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.62600000351700003</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.48600000292099999</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.82399999499300003</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.66400000155000005</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.783000001311</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.94399999678099999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.62900000512599996</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.806000000238</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.77899999618500004</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.80499999523200005</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.82299999594700002</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.80799999535099998</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.74400000572199998</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.85899998843699998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.75300000905999998</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.75800000727200001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.65600000321899998</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.46400000154999999</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.75399999916600002</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.76299999952300002</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.63899999856900003</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.74199999868900002</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.61800000667599997</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.77799999415900001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.61800000369499997</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.62600000798699995</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.91600000023799999</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.67000000774900004</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.57000000476799995</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.57100000530499995</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.65100000351700005</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.57100000232500003</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.57399999946400004</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.934999996424</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.557999998331</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.85599999725800002</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.82699999809299996</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.85599999129799997</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.83399998545599996</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.69300001263599997</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.75099999606599999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.99400000572199998</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.74400000274199996</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.711000007391</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.81099999248999999</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.667000004649</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.77999999821199995</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.690000006557</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.77199999690099996</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.99600000381499998</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.77099999785399997</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.91699999272800004</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.94199999868899997</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.92799999713900005</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.943999999762</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.92700000107299996</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.943999999762</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.98500000238399998</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.943999999762</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.41899999976199997</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.72900000512600005</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.25599999986600003</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.43199999928499999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.27300000116200002</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.27000000178799999</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.41300000250300001</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.452999994159</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.47999999970200002</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.58000000715300004</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.44500000104300003</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.37499999925499999</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.241999999061</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.567000001669</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.56500000059599997</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.86299999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.442000001669</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.46799999475499998</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.442000001669</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.47400000244399998</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.471000002325</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.420000000298</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.47400000095400002</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.77900000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.588000002503</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.59900000244399998</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.52400000244400002</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.590000000596</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.545000000298</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.51999999731799995</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.71200000345699999</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.60500000715299995</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.91400000155000005</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.89699999391999996</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.98400000333799997</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.90699999332400005</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.91800000071499999</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.93699999451600002</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.93099999725799998</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.111999999918</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9.8999999091000004E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.10999999958999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>9.3999999575300003E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>8.0999999120799998E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>9.1999999433799995E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.13099999949300001</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.11000000014899999</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.96500000357600002</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.97900000810599996</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.97700001001400005</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.97900001108599999</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.94799999594700002</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.91099999546999999</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.98500000536400001</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.98100000917899999</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>